--- a/database/news.xlsx
+++ b/database/news.xlsx
@@ -1,29 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="My Data" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>pubdate</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>2019.9.11</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tday </t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>2019.9.12</t>
+  </si>
+  <si>
+    <t>hyper mutiki</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>2019.9.13</t>
+  </si>
+  <si>
+    <t>ddd decade</t>
+  </si>
+  <si>
+    <t>2019.9.14</t>
+  </si>
+  <si>
+    <t>2019.9.15</t>
+  </si>
+  <si>
+    <t>2019.9.16</t>
+  </si>
+  <si>
+    <t>2019.9.17</t>
+  </si>
+  <si>
+    <t>2019.9.18</t>
+  </si>
+  <si>
+    <t>2019.9.19</t>
+  </si>
+  <si>
+    <t>2019.9.20</t>
+  </si>
+  <si>
+    <t>2019.9.21</t>
+  </si>
+  <si>
+    <t>2019.9.22</t>
+  </si>
+  <si>
+    <t>2019.9.23</t>
+  </si>
+  <si>
+    <t>2019.9.24</t>
+  </si>
+  <si>
+    <t>2019.9.25</t>
+  </si>
+  <si>
+    <t>2019.9.26</t>
+  </si>
+  <si>
+    <t>2019.9.27</t>
+  </si>
+  <si>
+    <t>2019.9.28</t>
+  </si>
+  <si>
+    <t>2019.9.29</t>
+  </si>
+  <si>
+    <t>2019.9.30</t>
+  </si>
+  <si>
+    <t>2019.9.31</t>
+  </si>
+  <si>
+    <t>2019.9.32</t>
+  </si>
+  <si>
+    <t>2019.9.33</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2019-09-17</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -31,29 +155,31 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -202,16 +328,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -333,520 +463,508 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>title</v>
-      </c>
-      <c r="C1" t="str">
-        <v>pubdate</v>
-      </c>
-      <c r="D1" t="str">
-        <v>content</v>
-      </c>
-      <c r="E1" t="str">
-        <v>sort</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>AAA</v>
-      </c>
-      <c r="C2" t="str">
-        <v>2019.9.11</v>
-      </c>
-      <c r="D2" t="str">
-        <v xml:space="preserve">tday </v>
-      </c>
-      <c r="E2">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>BBB</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2019.9.12</v>
-      </c>
-      <c r="D3" t="str">
-        <v>hyper mutiki</v>
-      </c>
-      <c r="E3">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C4" t="str">
-        <v>2019.9.13</v>
-      </c>
-      <c r="D4" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E4">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2019.9.14</v>
-      </c>
-      <c r="D5" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E5">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C6" t="str">
-        <v>2019.9.15</v>
-      </c>
-      <c r="D6" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E6">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C7" t="str">
-        <v>2019.9.16</v>
-      </c>
-      <c r="D7" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E7">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C8" t="str">
-        <v>2019.9.17</v>
-      </c>
-      <c r="D8" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E8">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C9" t="str">
-        <v>2019.9.18</v>
-      </c>
-      <c r="D9" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E9">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C10" t="str">
-        <v>2019.9.19</v>
-      </c>
-      <c r="D10" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E10">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C11" t="str">
-        <v>2019.9.20</v>
-      </c>
-      <c r="D11" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E11">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C12" t="str">
-        <v>2019.9.21</v>
-      </c>
-      <c r="D12" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E12">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C13" t="str">
-        <v>2019.9.22</v>
-      </c>
-      <c r="D13" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E13">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C14" t="str">
-        <v>2019.9.23</v>
-      </c>
-      <c r="D14" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C15" t="str">
-        <v>2019.9.24</v>
-      </c>
-      <c r="D15" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E15">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C16" t="str">
-        <v>2019.9.25</v>
-      </c>
-      <c r="D16" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C17" t="str">
-        <v>2019.9.26</v>
-      </c>
-      <c r="D17" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E17">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C18" t="str">
-        <v>2019.9.27</v>
-      </c>
-      <c r="D18" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E18">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C19" t="str">
-        <v>2019.9.28</v>
-      </c>
-      <c r="D19" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E19">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C20" t="str">
-        <v>2019.9.29</v>
-      </c>
-      <c r="D20" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E20">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C21" t="str">
-        <v>2019.9.30</v>
-      </c>
-      <c r="D21" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E21">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C22" t="str">
-        <v>2019.9.31</v>
-      </c>
-      <c r="D22" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E22">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C23" t="str">
-        <v>2019.9.32</v>
-      </c>
-      <c r="D23" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E23">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="str">
-        <v>ccc</v>
-      </c>
-      <c r="C24" t="str">
-        <v>2019.9.33</v>
-      </c>
-      <c r="D24" t="str">
-        <v>ddd decade</v>
-      </c>
-      <c r="E24">
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24">
         <v>23</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="str">
-        <v/>
-      </c>
-      <c r="C25" t="str">
-        <v/>
-      </c>
-      <c r="D25" t="str">
-        <v/>
-      </c>
-      <c r="E25" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="26">
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="str">
-        <v/>
-      </c>
-      <c r="C26" t="str">
-        <v/>
-      </c>
-      <c r="D26" t="str">
-        <v/>
-      </c>
-      <c r="E26" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="27">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="str">
-        <v>1</v>
-      </c>
-      <c r="C27" t="str">
-        <v>2019-09-17</v>
-      </c>
-      <c r="D27" t="str">
-        <v>2</v>
-      </c>
-      <c r="E27" t="str">
-        <v/>
-      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E27"/>
-  </ignoredErrors>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50902777777778" footer="0.50902777777778"/>
+  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>